--- a/Genome_OR_hmm_sum.xlsx
+++ b/Genome_OR_hmm_sum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limingcai/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC9F914-FD04-8D4D-AE07-0930C741AE16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6AF63DC-54B8-E449-B2BA-99A8E66E50EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14240" xr2:uid="{A8C476A8-E763-6F49-9B66-C862DF165DB5}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14220" xr2:uid="{A8C476A8-E763-6F49-9B66-C862DF165DB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -539,13 +539,13 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
